--- a/para/para_data/asc_list.xlsx
+++ b/para/para_data/asc_list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/edf_demo/para/para_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B2CA6C-B2BF-C94A-AE13-87AAB317297C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0D9B37-9B3A-D248-BA9B-ED8F169BD4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17440" xr2:uid="{29ECDC9C-8138-D44E-A6FE-2E9B1DA9A1D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F30FBFC-5DAD-6449-955B-95B50C812A90}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -417,182 +417,72 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1001</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1002</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>1003</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>1004</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>1005</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>1007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>1008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>1009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>1010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>1011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>1012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>1013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>1014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>1039</v>
+        <v>2014</v>
       </c>
     </row>
   </sheetData>

--- a/para/para_data/asc_list.xlsx
+++ b/para/para_data/asc_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/edf_demo/para/para_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0D9B37-9B3A-D248-BA9B-ED8F169BD4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FFA0CD-FCC4-4042-BFEA-D04E92E668DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17440" xr2:uid="{29ECDC9C-8138-D44E-A6FE-2E9B1DA9A1D7}"/>
+    <workbookView xWindow="2700" yWindow="7560" windowWidth="28240" windowHeight="17380" xr2:uid="{29ECDC9C-8138-D44E-A6FE-2E9B1DA9A1D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F30FBFC-5DAD-6449-955B-95B50C812A90}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -417,72 +417,157 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2001</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>2002</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>2003</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>2004</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>2005</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>2006</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>2007</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>2008</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>2009</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>2010</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>2011</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>2012</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>2013</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>2014</v>
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>3031</v>
       </c>
     </row>
   </sheetData>
